--- a/nodejs/parser/parsed-data.xlsx
+++ b/nodejs/parser/parsed-data.xlsx
@@ -1,13 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
-  </bookViews>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Мой лист" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Мой лист" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -199,11 +196,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,44 +253,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -323,12 +320,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -358,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,157 +364,208 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="8" width="30.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -723,7 +771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -736,6 +784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/nodejs/parser/parsed-data.xlsx
+++ b/nodejs/parser/parsed-data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>url</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Стрыгина Ольга Евгеньевна</t>
   </si>
   <si>
-    <t>Главный врач. Дерматовенеролог, врач-косметолог. Ассистент кафедры дерматовенералогии ВГМА им. Н.Н. Бурденко, официальный тренер компании "Новокутан", член экспертного совета "Академии Эстетики".</t>
+    <t>Главный врач. Дерматовенеролог, врач-косметолог. Ассистент кафедры дерматовенерологии ВГМА им. Н.Н. Бурденко, официальный тренер компании "Новокутан", член экспертного совета "Академии Эстетики".</t>
   </si>
   <si>
     <t>20 лет</t>
@@ -94,7 +94,7 @@
     <t>Николаева Татьяна Игоревна</t>
   </si>
   <si>
-    <t>Врач-косметолог, врач-дерматовенеролог, ведущий врач-трихолог. Сертифицированный тренер компании "Мезфарм".</t>
+    <t>Врач-косметолог, врач-дерматовенеролог, ведущий врач-трихолог. Сертифицированный тренер компании "Мезофарм".</t>
   </si>
   <si>
     <t>19 лет</t>
@@ -187,7 +187,37 @@
     <t>https://erabeauty.ru/wp-content/uploads/2024/12/Левон-Ольга.png</t>
   </si>
   <si>
-    <t>sdfsdf</t>
+    <t>https://erabeauty.ru/team/opanashchuk_marina_nikolaevna/</t>
+  </si>
+  <si>
+    <t>Опанащук Марина Николаевна</t>
+  </si>
+  <si>
+    <t>Врач-дерматовенеролог, врач-косметолог</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/04/photo_2025-04-17_14-40-57-768x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/chernyshova_mariya_mihajlovna/</t>
+  </si>
+  <si>
+    <t>Чернышова Мария Михайловна</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/04/photo_2025-04-17_14-41-00-768x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/team/serikova_tatyana_leonidovna/</t>
+  </si>
+  <si>
+    <t>Серикова Татьяна Леонидовна</t>
+  </si>
+  <si>
+    <t>Медицинская сестра по косметологии, косметолог-эстетист, косметолог-подолог</t>
+  </si>
+  <si>
+    <t>https://erabeauty.ru/wp-content/uploads/2025/04/серикова_татьяна-1-806x1024.jpg</t>
   </si>
 </sst>
 </file>
@@ -564,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,15 +801,55 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
